--- a/meta/15-3-1-1.xlsx
+++ b/meta/15-3-1-1.xlsx
@@ -94,12 +94,6 @@
     <t>8. Ссылки и документация</t>
   </si>
   <si>
-    <t>2: Ликвидация голода, обеспечение продовольственной безопасности, улучшение питания и содействие устойчивому развитию сельского хозяйства</t>
-  </si>
-  <si>
-    <t>2.1: К 2030 году покончить с голодом и обеспечить доступ для всех людей, особенно бедных и уязвимых групп населения, включая детей, к безопасному, богатому питательными веществами и достаточному питанию в течение всего года</t>
-  </si>
-  <si>
     <t>Национальный статистический комитет КР (Отдел статистики сельского хозяйства)</t>
   </si>
   <si>
@@ -110,9 +104,6 @@
   </si>
   <si>
     <t>+996 (0312) 66-40-43</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t xml:space="preserve">Методика согласована с Представительством ФАО в Кыргызской Республике </t>
@@ -154,18 +145,35 @@
   <si>
     <t>После разработки показателя неиспользованная площадь производится логический и
 арифметический контроль по посевным площадям сельскохозяйственных культур..</t>
+  </si>
+  <si>
+    <t>15. Защита и восстановление экосистем суши и содействие их рациональному использованию, рациональное лесопользование, борьба с опустыниванием, прекращение и обращение вспять процесса деградации земель и прекращение процесса утраты биологического разнообразия</t>
+  </si>
+  <si>
+    <t>15.3 К 2030 году вести борьбу с опустыниванием, восстановить деградировавшие земли и почвы, включая земли, затронутые опустыниванием, засухами и наводнениями, и стремиться к тому, чтобы во всем мире не ухудшалось состояние земель</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,6 +205,14 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -237,35 +253,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
@@ -573,7 +599,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,16 +619,16 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
+      <c r="B3" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -610,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -624,7 +650,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -632,7 +658,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -640,7 +666,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -648,15 +674,15 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>32</v>
+      <c r="B10" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -670,7 +696,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -678,7 +704,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -686,7 +712,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -700,7 +726,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="138" customHeight="1" x14ac:dyDescent="0.25">
@@ -708,7 +734,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -722,7 +748,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="330" customHeight="1" x14ac:dyDescent="0.25">
@@ -730,7 +756,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -738,7 +764,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -752,7 +778,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -760,7 +786,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -768,7 +794,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -776,12 +802,15 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>